--- a/rfe_benchmark_random_forest_av.xlsx
+++ b/rfe_benchmark_random_forest_av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\honours-project-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D0EE4-109B-4D3B-BF3B-758716E783E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493BE226-0C10-43E8-ADE8-22AC98A73EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rfe_benchmark_random_forest_av" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -49,7 +49,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -57,7 +57,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -66,7 +66,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -75,7 +75,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -84,7 +84,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -92,7 +92,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -100,7 +100,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +108,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -116,7 +116,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -125,7 +125,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -134,7 +134,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -151,7 +151,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -159,7 +159,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -168,7 +168,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -177,7 +177,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -185,14 +185,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -699,7 +699,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>10-Folds RF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -720,9 +775,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -733,7 +790,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1538,7 +1595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F47-4D05-9ABB-ACE220F6CAA3}"/>
+              <c16:uniqueId val="{00000000-8E2A-4778-AF80-6338B749E7B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1557,9 +1614,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1570,7 +1629,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2375,7 +2434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8F47-4D05-9ABB-ACE220F6CAA3}"/>
+              <c16:uniqueId val="{00000001-8E2A-4778-AF80-6338B749E7B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2388,16 +2447,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1845760032"/>
-        <c:axId val="1842986064"/>
+        <c:axId val="1587405087"/>
+        <c:axId val="1587373055"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1845760032"/>
+        <c:axId val="1587405087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Use N of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> features</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2432,10 +2551,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1842986064"/>
+        <c:crossAx val="1587373055"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2443,7 +2562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1842986064"/>
+        <c:axId val="1587373055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,6 +2582,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2491,10 +2665,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845760032"/>
+        <c:crossAx val="1587405087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2533,7 +2707,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2563,7 +2737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3134,23 +3308,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>170715</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275491</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>549519</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>7326</xdr:rowOff>
+      <xdr:colOff>164122</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D389B2D-A6D6-4D63-8CB3-582241813823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83C9C78-36AF-4823-B74B-6AFCF7537A8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,13 +3644,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B241" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C261"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3501,7 +3675,7 @@
         <v>8.9948427587586699E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3515,7 +3689,7 @@
         <v>6.8970411683781693E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3529,7 +3703,7 @@
         <v>0.20444845923247601</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3543,7 +3717,7 @@
         <v>0.18880650158573301</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3557,7 +3731,7 @@
         <v>0.201943632196565</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3571,7 +3745,7 @@
         <v>0.22671480331227301</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3585,7 +3759,7 @@
         <v>0.191609773753352</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3599,7 +3773,7 @@
         <v>0.27310900476925998</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3613,7 +3787,7 @@
         <v>0.244811727704184</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3627,7 +3801,7 @@
         <v>0.21546120196313401</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3641,7 +3815,7 @@
         <v>0.19765586662978701</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3655,7 +3829,7 @@
         <v>0.13663797009735601</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3669,7 +3843,7 @@
         <v>0.22262430344513101</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3683,7 +3857,7 @@
         <v>0.21276785531447601</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3697,7 +3871,7 @@
         <v>0.21332263342127</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3711,7 +3885,7 @@
         <v>0.23503578860544599</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3725,7 +3899,7 @@
         <v>0.26612082033113099</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3739,7 +3913,7 @@
         <v>0.156017194814148</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3753,7 +3927,7 @@
         <v>0.20593890347820001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3767,7 +3941,7 @@
         <v>0.238138424752245</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3781,7 +3955,7 @@
         <v>0.26240878958228098</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3795,7 +3969,7 @@
         <v>0.30265866940493202</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3809,7 +3983,7 @@
         <v>0.26161483135751601</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3823,7 +3997,7 @@
         <v>0.21938824550688399</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3837,7 +4011,7 @@
         <v>0.237506075330359</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3851,7 +4025,7 @@
         <v>0.230157429954472</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3865,7 +4039,7 @@
         <v>0.245132338445056</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3879,7 +4053,7 @@
         <v>0.21430285009983599</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3893,7 +4067,7 @@
         <v>0.202113828618114</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3907,7 +4081,7 @@
         <v>0.24284128182008699</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3921,7 +4095,7 @@
         <v>0.22233002266194399</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3935,7 +4109,7 @@
         <v>0.16695054681823401</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3949,7 +4123,7 @@
         <v>0.22908530527363699</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3963,7 +4137,7 @@
         <v>0.26633140323816201</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3977,7 +4151,7 @@
         <v>0.19755168591472999</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3991,7 +4165,7 @@
         <v>0.182593319569651</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4005,7 +4179,7 @@
         <v>0.20246007360034199</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4019,7 +4193,7 @@
         <v>0.22928106836020801</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4033,7 +4207,7 @@
         <v>0.26141015728306199</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4047,7 +4221,7 @@
         <v>0.24835632413099101</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4061,7 +4235,7 @@
         <v>0.24758214676214699</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4075,7 +4249,7 @@
         <v>0.31832274264143801</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4089,7 +4263,7 @@
         <v>0.230773053858365</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4103,7 +4277,7 @@
         <v>0.28423239732306499</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4117,7 +4291,7 @@
         <v>0.28889245563792598</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4131,7 +4305,7 @@
         <v>0.19648738509396299</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4145,7 +4319,7 @@
         <v>0.29685111373683698</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4159,7 +4333,7 @@
         <v>0.31750633759767499</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4173,7 +4347,7 @@
         <v>0.34729948308144198</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4187,7 +4361,7 @@
         <v>0.21726335375383499</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4201,7 +4375,7 @@
         <v>0.24540940726497101</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4215,7 +4389,7 @@
         <v>0.25389419079360398</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4229,7 +4403,7 @@
         <v>0.30796789965253102</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4243,7 +4417,7 @@
         <v>0.26242221193903797</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4257,7 +4431,7 @@
         <v>0.248166356754566</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4271,7 +4445,7 @@
         <v>0.25350120525609898</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4285,7 +4459,7 @@
         <v>0.30792327098926198</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4299,7 +4473,7 @@
         <v>0.27984576267905997</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4313,7 +4487,7 @@
         <v>0.24248767687527101</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4327,7 +4501,7 @@
         <v>0.26156994748456103</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4341,7 +4515,7 @@
         <v>0.174928296940041</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4355,7 +4529,7 @@
         <v>0.25633117701809399</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4369,7 +4543,7 @@
         <v>0.24264998550782799</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4383,7 +4557,7 @@
         <v>0.26607837550803098</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4397,7 +4571,7 @@
         <v>0.26456938549069497</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4411,7 +4585,7 @@
         <v>0.18300924650717701</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4425,7 +4599,7 @@
         <v>0.237621947413274</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4439,7 +4613,7 @@
         <v>0.21259100943921599</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4453,7 +4627,7 @@
         <v>0.24034129307001501</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4467,7 +4641,7 @@
         <v>0.27440523992190802</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4481,7 +4655,7 @@
         <v>0.27284756607444599</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4495,7 +4669,7 @@
         <v>0.25233515538002099</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4509,7 +4683,7 @@
         <v>0.21852350331964401</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4523,7 +4697,7 @@
         <v>0.28250713037598102</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4537,7 +4711,7 @@
         <v>0.25181179008743199</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4551,7 +4725,7 @@
         <v>0.23949507724117799</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4565,7 +4739,7 @@
         <v>0.248323122202562</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4579,7 +4753,7 @@
         <v>0.21687358116251301</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4593,7 +4767,7 @@
         <v>0.240101950451897</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4607,7 +4781,7 @@
         <v>0.228938997736233</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4621,7 +4795,7 @@
         <v>0.30162765800757402</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4635,7 +4809,7 @@
         <v>0.26990534507493602</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4649,7 +4823,7 @@
         <v>0.27020945919963901</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4663,7 +4837,7 @@
         <v>0.218108306197553</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4677,7 +4851,7 @@
         <v>0.35032910827875702</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4691,7 +4865,7 @@
         <v>0.25122187209258001</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4705,7 +4879,7 @@
         <v>0.21464055231860901</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4719,7 +4893,7 @@
         <v>0.29106044899927502</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4733,7 +4907,7 @@
         <v>0.213208957516238</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4747,7 +4921,7 @@
         <v>0.21586950200716201</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4761,7 +4935,7 @@
         <v>0.257963231396176</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4775,7 +4949,7 @@
         <v>0.232702962484228</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4789,7 +4963,7 @@
         <v>0.25643170244299701</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4803,7 +4977,7 @@
         <v>0.30364453404285502</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4817,7 +4991,7 @@
         <v>0.17859737243087301</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4831,7 +5005,7 @@
         <v>0.29823074034680402</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4845,7 +5019,7 @@
         <v>0.30082036606592</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4859,7 +5033,7 @@
         <v>0.245174464922709</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4873,7 +5047,7 @@
         <v>0.29282972924432399</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4887,7 +5061,7 @@
         <v>0.29630874728106898</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4901,7 +5075,7 @@
         <v>0.23840639163937899</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4915,7 +5089,7 @@
         <v>0.29894060893123697</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4929,7 +5103,7 @@
         <v>0.251051497452838</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4943,7 +5117,7 @@
         <v>0.25080935918548702</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4957,7 +5131,7 @@
         <v>0.25910430125155798</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4971,7 +5145,7 @@
         <v>0.26282233490187001</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4985,7 +5159,7 @@
         <v>0.28762337351050199</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4999,7 +5173,7 @@
         <v>0.21978036040648799</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5013,7 +5187,7 @@
         <v>0.24435902822675501</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5027,7 +5201,7 @@
         <v>0.27773789911039998</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5041,7 +5215,7 @@
         <v>0.29653316755711601</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5055,7 +5229,7 @@
         <v>0.22891436082510899</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5069,7 +5243,7 @@
         <v>0.28473747165470098</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5083,7 +5257,7 @@
         <v>0.30069570552448999</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5097,7 +5271,7 @@
         <v>0.26257348152146798</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5111,7 +5285,7 @@
         <v>0.27107572491464599</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5125,7 +5299,7 @@
         <v>0.28004899372287201</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5139,7 +5313,7 @@
         <v>0.23818194403732901</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5153,7 +5327,7 @@
         <v>0.23981129771625501</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5167,7 +5341,7 @@
         <v>0.300234269704032</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5181,7 +5355,7 @@
         <v>0.28964116749198798</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5195,7 +5369,7 @@
         <v>0.23348503111378999</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5209,7 +5383,7 @@
         <v>0.25183128566079499</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5223,7 +5397,7 @@
         <v>0.28104387611820703</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5237,7 +5411,7 @@
         <v>0.27117430908288898</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5251,7 +5425,7 @@
         <v>0.23632221347834401</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5265,7 +5439,7 @@
         <v>0.27578315844471102</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5279,7 +5453,7 @@
         <v>0.223555731278716</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5293,7 +5467,7 @@
         <v>0.28368037756255199</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5307,7 +5481,7 @@
         <v>0.26347152920047501</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5321,7 +5495,7 @@
         <v>0.27330187319117799</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5335,7 +5509,7 @@
         <v>0.28153479849287499</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5349,7 +5523,7 @@
         <v>0.28964324510161499</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5363,7 +5537,7 @@
         <v>0.25103714592814103</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5377,7 +5551,7 @@
         <v>0.29103753674930999</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5391,7 +5565,7 @@
         <v>0.23750798108177401</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5405,7 +5579,7 @@
         <v>0.257468198450577</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5419,7 +5593,7 @@
         <v>0.248330923191039</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5433,7 +5607,7 @@
         <v>0.229798672195236</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5447,7 +5621,7 @@
         <v>0.244120006140913</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5461,7 +5635,7 @@
         <v>0.215326978511311</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5475,7 +5649,7 @@
         <v>0.30487311599870198</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5489,7 +5663,7 @@
         <v>0.27565462658437301</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5503,7 +5677,7 @@
         <v>0.24070431785192201</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5517,7 +5691,7 @@
         <v>0.24377594890247301</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5531,7 +5705,7 @@
         <v>0.23964730493948599</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5545,7 +5719,7 @@
         <v>0.27225313862725098</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5559,7 +5733,7 @@
         <v>0.26789052812761299</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5573,7 +5747,7 @@
         <v>0.25821874997660199</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5587,7 +5761,7 @@
         <v>0.250209493583538</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5601,7 +5775,7 @@
         <v>0.23126192628071501</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5615,7 +5789,7 @@
         <v>0.24416380313795999</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5629,7 +5803,7 @@
         <v>0.28258331750576299</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5643,7 +5817,7 @@
         <v>0.231039303037192</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5657,7 +5831,7 @@
         <v>0.21632641266138899</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5671,7 +5845,7 @@
         <v>0.26032468931665997</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5685,7 +5859,7 @@
         <v>0.172601232609217</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5699,7 +5873,7 @@
         <v>0.18267004956465399</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5713,7 +5887,7 @@
         <v>0.235758717562424</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5727,7 +5901,7 @@
         <v>0.24963209423237201</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5741,7 +5915,7 @@
         <v>0.29270468198195299</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5755,7 +5929,7 @@
         <v>0.27561795246967702</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5769,7 +5943,7 @@
         <v>0.26914230378590498</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5783,7 +5957,7 @@
         <v>0.20208759937074999</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5797,7 +5971,7 @@
         <v>0.27278514577298701</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5811,7 +5985,7 @@
         <v>0.28225175117589901</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5825,7 +5999,7 @@
         <v>0.23324787239872999</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5839,7 +6013,7 @@
         <v>0.28953794878296202</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5853,7 +6027,7 @@
         <v>0.29454226887516699</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5867,7 +6041,7 @@
         <v>0.24935934585616301</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5881,7 +6055,7 @@
         <v>0.28973621667817201</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5895,7 +6069,7 @@
         <v>0.291821322809728</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5909,7 +6083,7 @@
         <v>0.31716224020635397</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5923,7 +6097,7 @@
         <v>0.24448851462879401</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5937,7 +6111,7 @@
         <v>0.30596935904948303</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5951,7 +6125,7 @@
         <v>0.26988825807640998</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5965,7 +6139,7 @@
         <v>0.27954996240873198</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5979,7 +6153,7 @@
         <v>0.28277757764726502</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5993,7 +6167,7 @@
         <v>0.25008335065050202</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6007,7 +6181,7 @@
         <v>0.25154612445744101</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6021,7 +6195,7 @@
         <v>0.28335261305314202</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6035,7 +6209,7 @@
         <v>0.237945245019096</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6049,7 +6223,7 @@
         <v>0.32545883723427199</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6063,7 +6237,7 @@
         <v>0.27424421433865198</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6077,7 +6251,7 @@
         <v>0.315129616007852</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6091,7 +6265,7 @@
         <v>0.29996943467637799</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6105,7 +6279,7 @@
         <v>0.229217580374557</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6119,7 +6293,7 @@
         <v>0.29792867018163099</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6133,7 +6307,7 @@
         <v>0.26813563342032798</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6147,7 +6321,7 @@
         <v>0.29204268318836302</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6161,7 +6335,7 @@
         <v>0.28794929933652003</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6175,7 +6349,7 @@
         <v>0.25737646016392701</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6189,7 +6363,7 @@
         <v>0.21581464039013501</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6203,7 +6377,7 @@
         <v>0.27080265769738299</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6217,7 +6391,7 @@
         <v>0.261033006299141</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6231,7 +6405,7 @@
         <v>0.27228358141732301</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6245,7 +6419,7 @@
         <v>0.32231027196998302</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6259,7 +6433,7 @@
         <v>0.28563239434347798</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6273,7 +6447,7 @@
         <v>0.216740068932574</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6287,7 +6461,7 @@
         <v>0.34071111617864902</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6301,7 +6475,7 @@
         <v>0.292158372639232</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6315,7 +6489,7 @@
         <v>0.26941910729025897</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6329,7 +6503,7 @@
         <v>0.30148385711206999</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6343,7 +6517,7 @@
         <v>0.17048479966285601</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6357,7 +6531,7 @@
         <v>0.238103145423016</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6371,7 +6545,7 @@
         <v>0.25427050702527898</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6385,7 +6559,7 @@
         <v>0.31460013052973101</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6399,7 +6573,7 @@
         <v>0.31486612991146301</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6413,7 +6587,7 @@
         <v>0.26620356672530099</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6427,7 +6601,7 @@
         <v>0.26843676854946702</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6441,7 +6615,7 @@
         <v>0.26053793628011601</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6455,7 +6629,7 @@
         <v>0.27341270571989301</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6469,7 +6643,7 @@
         <v>0.27106798450803998</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6483,7 +6657,7 @@
         <v>0.32158195337353701</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6497,7 +6671,7 @@
         <v>0.214415779996077</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6511,7 +6685,7 @@
         <v>0.26176140471065101</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6525,7 +6699,7 @@
         <v>0.23994457686405701</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6539,7 +6713,7 @@
         <v>0.246394548710793</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6553,7 +6727,7 @@
         <v>0.24137641078567201</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6567,7 +6741,7 @@
         <v>0.24279809390689</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6581,7 +6755,7 @@
         <v>0.25757043103210903</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6595,7 +6769,7 @@
         <v>0.24464316685201401</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6609,7 +6783,7 @@
         <v>0.30606462075466401</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6623,7 +6797,7 @@
         <v>0.28951856540465898</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6637,7 +6811,7 @@
         <v>0.27593683563076798</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6651,7 +6825,7 @@
         <v>0.21701292158788299</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6665,7 +6839,7 @@
         <v>0.30751239437236599</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6679,7 +6853,7 @@
         <v>0.26150998461741998</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6693,7 +6867,7 @@
         <v>0.26738834032409797</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6707,7 +6881,7 @@
         <v>0.29712491336358099</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6721,7 +6895,7 @@
         <v>0.27085822235991902</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6735,7 +6909,7 @@
         <v>0.257161182521851</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6749,7 +6923,7 @@
         <v>0.289319406112308</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6763,7 +6937,7 @@
         <v>0.24343625440031499</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6777,7 +6951,7 @@
         <v>0.29770499658161997</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6791,7 +6965,7 @@
         <v>0.26591388713130598</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6805,7 +6979,7 @@
         <v>0.18282387947246101</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6819,7 +6993,7 @@
         <v>0.26818765108930098</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6833,7 +7007,7 @@
         <v>0.21877205897017901</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6847,7 +7021,7 @@
         <v>0.15462674651809699</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6861,7 +7035,7 @@
         <v>0.265391694366094</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6875,7 +7049,7 @@
         <v>0.28283184464620498</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6889,7 +7063,7 @@
         <v>0.29465300450502702</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6903,7 +7077,7 @@
         <v>0.27066645450247401</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6917,7 +7091,7 @@
         <v>0.25377438862872498</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6931,7 +7105,7 @@
         <v>0.279978673191486</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6945,7 +7119,7 @@
         <v>0.27967894262242898</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6959,7 +7133,7 @@
         <v>0.28780638525049301</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6973,7 +7147,7 @@
         <v>0.243389415789006</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6987,7 +7161,7 @@
         <v>0.178190861347895</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7001,7 +7175,7 @@
         <v>0.25692522484303199</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7015,7 +7189,7 @@
         <v>0.24067105548996401</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7029,7 +7203,7 @@
         <v>0.22017602622672899</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7043,7 +7217,7 @@
         <v>0.25907856896467502</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7057,7 +7231,7 @@
         <v>0.25834053104478</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7071,7 +7245,7 @@
         <v>0.22536316181124</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7085,7 +7259,7 @@
         <v>0.20749844349221899</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7099,7 +7273,7 @@
         <v>0.249553361277466</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7113,7 +7287,7 @@
         <v>0.25610322066024499</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
